--- a/qdx.xlsx
+++ b/qdx.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="47">
   <si>
     <t>类别</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,10 +162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>公卫电热水器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>客厅/餐厅/阳台</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,6 +195,14 @@
   </si>
   <si>
     <t>单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32A漏保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000w</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -294,7 +298,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -323,6 +327,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -908,10 +915,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -920,7 +927,7 @@
     <col min="2" max="2" width="7.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="7.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
@@ -941,10 +948,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="15.75" thickBot="1">
@@ -962,180 +969,182 @@
       <c r="A3" t="s">
         <v>27</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="10">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
+      <c r="D3" s="10">
+        <v>2</v>
+      </c>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:7" customFormat="1">
       <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4">
+        <v>39</v>
+      </c>
+      <c r="B4" s="10">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
+      <c r="D4" s="10">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="B5" s="10">
         <v>2.5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>43</v>
+      <c r="D5" s="10">
+        <v>2</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="10">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6"/>
+      <c r="D6" s="10">
+        <v>2</v>
+      </c>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7"/>
+      <c r="B7" s="10">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="10">
+        <v>2</v>
+      </c>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8"/>
+      <c r="B8" s="10">
+        <v>4</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="10">
+        <v>2</v>
+      </c>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9"/>
+        <v>41</v>
+      </c>
+      <c r="B9" s="10">
+        <v>4</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="10">
+        <v>2</v>
+      </c>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10">
+        <v>36</v>
+      </c>
+      <c r="B10" s="10">
         <v>2.5</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10"/>
+      <c r="D10" s="10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11">
+        <v>37</v>
+      </c>
+      <c r="B11" s="10">
         <v>2.5</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11"/>
+      <c r="D11" s="10">
+        <v>2</v>
+      </c>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12"/>
+      <c r="B12" s="10">
+        <v>4</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="10">
+        <v>2</v>
+      </c>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>29</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="10">
         <v>10</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13"/>
+      <c r="D13" s="10">
+        <v>2</v>
+      </c>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
-      <c r="E14"/>
+      <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
-      <c r="E15"/>
+      <c r="E15" s="10"/>
     </row>
     <row r="17" spans="1:7" s="6" customFormat="1" ht="15.75" thickBot="1">
       <c r="A17" s="9" t="s">
@@ -1152,13 +1161,13 @@
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="2">
-        <v>4</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="B18" s="1">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1166,13 +1175,13 @@
       <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="2">
-        <v>4</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="B19" s="1">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1180,13 +1189,13 @@
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="2">
-        <v>4</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="B20" s="1">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1194,13 +1203,13 @@
       <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="2">
-        <v>4</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="B21" s="1">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1208,96 +1217,84 @@
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="2">
-        <v>4</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="2">
-        <v>2</v>
+      <c r="B22" s="1">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23"/>
+      <c r="A23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="2">
+        <v>15</v>
+      </c>
+      <c r="B24" s="1">
         <v>2.5</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="2">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="10">
         <v>2.5</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="2">
-        <v>2</v>
-      </c>
+      <c r="D25" s="10">
+        <v>2</v>
+      </c>
+      <c r="E25" s="10"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26">
-        <v>2.5</v>
-      </c>
-      <c r="C26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26"/>
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26" s="10"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
-      <c r="E27"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-    </row>
-    <row r="29" spans="1:7" s="8" customFormat="1" ht="33" customHeight="1">
-      <c r="A29" s="8" t="s">
-        <v>39</v>
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="1:7" s="8" customFormat="1" ht="33" customHeight="1">
+      <c r="A28" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A29:XFD29"/>
+    <mergeCell ref="A28:XFD28"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A17:E17"/>
   </mergeCells>

--- a/qdx.xlsx
+++ b/qdx.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="48">
   <si>
     <t>类别</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,10 +166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>客房/过道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>注意断路器之间的短跳线要用10平方毫米</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,27 +178,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阳台空能热水器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>饭厅地插</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>选型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>32A漏保</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5000w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主人房/儿童房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含副箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅空调/
+阳台空能热水器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客房/前过道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老人房/书房/后过道</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -298,7 +303,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -314,13 +319,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -330,7 +332,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -898,8 +900,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="8" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:4" s="7" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A21" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -915,15 +917,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="7.109375" style="2" bestFit="1" customWidth="1"/>
@@ -931,7 +933,7 @@
     <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="24.75">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="24.75">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -947,219 +949,210 @@
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="9" t="s">
+    </row>
+    <row r="2" spans="1:5" s="4" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" customFormat="1">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5" customFormat="1">
       <c r="A3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="6">
         <v>10</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="10">
-        <v>2</v>
-      </c>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" customFormat="1">
+      <c r="D3" s="6">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" customFormat="1">
       <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="6">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="10">
-        <v>10</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="10">
-        <v>2</v>
-      </c>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
+      <c r="B5" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="10">
-        <v>2</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="6">
         <v>10</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="10">
-        <v>2</v>
-      </c>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="10">
-        <v>4</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="10">
-        <v>2</v>
-      </c>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="D6" s="6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30.75" customHeight="1">
+      <c r="A7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="6">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="10">
-        <v>4</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="10">
-        <v>2</v>
-      </c>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="B8" s="6">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="10">
-        <v>4</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="10">
-        <v>2</v>
-      </c>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:7">
+        <v>16</v>
+      </c>
+      <c r="B9" s="6">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="6">
+        <v>2</v>
+      </c>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="6">
         <v>2.5</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="10">
-        <v>2</v>
-      </c>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="D10" s="6">
+        <v>2</v>
+      </c>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="10">
+        <v>46</v>
+      </c>
+      <c r="B11" s="6">
         <v>2.5</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="10">
-        <v>2</v>
-      </c>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="D11" s="6">
+        <v>2</v>
+      </c>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="10">
-        <v>4</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="10">
-        <v>2</v>
-      </c>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B12" s="6">
         <v>10</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="10">
-        <v>2</v>
-      </c>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="D12" s="6">
+        <v>2</v>
+      </c>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="17" spans="1:7" s="6" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A17" s="9" t="s">
+      <c r="E14" s="6"/>
+    </row>
+    <row r="16" spans="1:5" s="5" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1">
         <v>4</v>
@@ -1171,9 +1164,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B19" s="1">
         <v>4</v>
@@ -1185,9 +1178,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B20" s="1">
         <v>4</v>
@@ -1199,40 +1192,40 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B21" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="E21" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B22" s="1">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D22" s="1">
         <v>2</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B23" s="1">
         <v>2.5</v>
@@ -1244,59 +1237,45 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="1">
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="6">
         <v>2.5</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="10">
-        <v>2</v>
-      </c>
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="D24" s="6">
+        <v>2</v>
+      </c>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27" s="10"/>
-    </row>
-    <row r="28" spans="1:7" s="8" customFormat="1" ht="33" customHeight="1">
-      <c r="A28" s="8" t="s">
-        <v>38</v>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:5" s="7" customFormat="1" ht="33" customHeight="1">
+      <c r="A27" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A28:XFD28"/>
+    <mergeCell ref="A27:XFD27"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A16:E16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/qdx.xlsx
+++ b/qdx.xlsx
@@ -186,10 +186,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5000w</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>主人房/儿童房</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -208,6 +204,10 @@
   </si>
   <si>
     <t>老人房/书房/后过道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000W</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -325,14 +325,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -900,8 +900,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="7" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:4" s="8" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A21" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -920,7 +920,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="D17" sqref="D17:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -951,13 +951,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" customFormat="1">
       <c r="A3" t="s">
@@ -967,12 +967,12 @@
         <v>10</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D3" s="6">
         <v>2</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" customFormat="1">
       <c r="A4" t="s">
@@ -1020,12 +1020,12 @@
         <v>2</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30.75" customHeight="1">
+      <c r="A7" s="7" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30.75" customHeight="1">
-      <c r="A7" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="B7" s="6">
         <v>4</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="6">
         <v>2.5</v>
@@ -1128,13 +1128,13 @@
       <c r="E14" s="6"/>
     </row>
     <row r="16" spans="1:5" s="5" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
@@ -1206,26 +1206,27 @@
         <v>2</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="1">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="6">
         <v>2.5</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="1">
-        <v>2</v>
-      </c>
+      <c r="D22" s="6">
+        <v>2</v>
+      </c>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B23" s="1">
         <v>2.5</v>
@@ -1238,19 +1239,18 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="6">
+      <c r="A24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="1">
         <v>2.5</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="6">
-        <v>2</v>
-      </c>
-      <c r="E24" s="6"/>
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25"/>
@@ -1266,8 +1266,8 @@
       <c r="D26"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" s="7" customFormat="1" ht="33" customHeight="1">
-      <c r="A27" s="7" t="s">
+    <row r="27" spans="1:5" s="8" customFormat="1" ht="33" customHeight="1">
+      <c r="A27" s="8" t="s">
         <v>37</v>
       </c>
     </row>

--- a/qdx.xlsx
+++ b/qdx.xlsx
@@ -178,19 +178,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>饭厅地插</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>32A漏保</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>主人房/儿童房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>含副箱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -208,6 +200,14 @@
   </si>
   <si>
     <t>5000W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也控制副箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭厅地插</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -277,7 +277,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -294,6 +294,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -303,7 +336,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -325,13 +358,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -900,8 +972,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="8" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:4" s="7" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A21" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -920,7 +992,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:D24"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -934,330 +1006,343 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="24.75">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:5" customFormat="1">
-      <c r="A3" t="s">
+      <c r="A3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="18">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="6">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1"/>
+      <c r="D3" s="18">
+        <v>2</v>
+      </c>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:5" customFormat="1">
-      <c r="A4" t="s">
+      <c r="A4" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="18">
         <v>10</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="6">
-        <v>2</v>
-      </c>
-      <c r="E4" s="6"/>
+      <c r="D4" s="18">
+        <v>2</v>
+      </c>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="A5" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="18">
         <v>2.5</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="6">
-        <v>2</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="18">
+        <v>2</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="18">
+        <v>10</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="18">
+        <v>2</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30.75" customHeight="1">
+      <c r="A7" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="18">
+        <v>4</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="18">
+        <v>2</v>
+      </c>
+      <c r="E7" s="18"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="18">
+        <v>4</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="18">
+        <v>2</v>
+      </c>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="18">
+        <v>4</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="18">
+        <v>2</v>
+      </c>
+      <c r="E9" s="18"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="18">
+        <v>2</v>
+      </c>
+      <c r="E10" s="18"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="18">
+        <v>2</v>
+      </c>
+      <c r="E11" s="18"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="18">
+        <v>10</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="18">
+        <v>2</v>
+      </c>
+      <c r="E12" s="18"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="8"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="8"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" s="5" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A16" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="19">
+        <v>4</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="19">
+        <v>2</v>
+      </c>
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="19">
+        <v>4</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="19">
+        <v>2</v>
+      </c>
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="19">
+        <v>4</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="19">
+        <v>2</v>
+      </c>
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="19">
+        <v>4</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="19">
+        <v>2</v>
+      </c>
+      <c r="E20" s="19"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="19">
+        <v>6</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="6">
-        <v>10</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="6">
-        <v>2</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30.75" customHeight="1">
-      <c r="A7" s="7" t="s">
+      <c r="D21" s="19">
+        <v>2</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="18">
+        <v>2</v>
+      </c>
+      <c r="E22" s="18"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="6">
-        <v>4</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="6">
-        <v>2</v>
-      </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="6">
-        <v>4</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="6">
-        <v>2</v>
-      </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="6">
-        <v>4</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="6">
-        <v>2</v>
-      </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="6">
+      <c r="B23" s="19">
         <v>2.5</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C23" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="6">
-        <v>2</v>
-      </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="6">
+      <c r="D23" s="19">
+        <v>2</v>
+      </c>
+      <c r="E23" s="19"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="19">
         <v>2.5</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C24" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="6">
-        <v>2</v>
-      </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="6">
-        <v>10</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="6">
-        <v>2</v>
-      </c>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="16" spans="1:5" s="5" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A16" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="1">
-        <v>4</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="1">
-        <v>4</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="1">
-        <v>4</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="1">
-        <v>4</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="1">
-        <v>6</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="6">
-        <v>2</v>
-      </c>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2</v>
-      </c>
+      <c r="D24" s="19">
+        <v>2</v>
+      </c>
+      <c r="E24" s="19"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25" s="6"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="18"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26"/>
@@ -1266,8 +1351,8 @@
       <c r="D26"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" s="8" customFormat="1" ht="33" customHeight="1">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:5" s="7" customFormat="1" ht="33" customHeight="1">
+      <c r="A27" s="7" t="s">
         <v>37</v>
       </c>
     </row>

--- a/qdx.xlsx
+++ b/qdx.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="50">
   <si>
     <t>类别</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,6 +208,14 @@
   </si>
   <si>
     <t>饭厅地插</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25A漏保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>众臣曾工：改为4平方</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -277,7 +285,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -327,6 +335,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -336,7 +355,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -358,27 +377,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -388,23 +425,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -972,8 +994,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="7" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:4" s="19" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A21" s="19" t="s">
         <v>21</v>
       </c>
     </row>
@@ -989,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="D3" sqref="D3:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1005,344 +1027,347 @@
     <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="24.75">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="24.75">
+      <c r="A1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:6" s="4" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A2" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="1:5" customFormat="1">
-      <c r="A3" s="17" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="1:6" customFormat="1">
+      <c r="A3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="14">
         <v>10</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="18">
-        <v>2</v>
-      </c>
-      <c r="E3" s="19"/>
-    </row>
-    <row r="4" spans="1:5" customFormat="1">
-      <c r="A4" s="17" t="s">
+      <c r="D3" s="14">
+        <v>2</v>
+      </c>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="1:6" customFormat="1">
+      <c r="A4" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="14">
         <v>10</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="18">
-        <v>2</v>
-      </c>
-      <c r="E4" s="18"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="17" t="s">
+      <c r="D4" s="14">
+        <v>2</v>
+      </c>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="14">
+        <v>4</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="14">
+        <v>2</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="14">
+        <v>10</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="14">
+        <v>2</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30.75" customHeight="1">
+      <c r="A7" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="14">
+        <v>4</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="14">
+        <v>2</v>
+      </c>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="14">
+        <v>4</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="14">
+        <v>2</v>
+      </c>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="14">
+        <v>4</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="14">
+        <v>2</v>
+      </c>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="14">
         <v>2.5</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C10" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="18">
-        <v>2</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="18">
+      <c r="D10" s="14">
+        <v>2</v>
+      </c>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="14">
+        <v>2</v>
+      </c>
+      <c r="E11" s="14"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="14">
         <v>10</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C12" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="18">
-        <v>2</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30.75" customHeight="1">
-      <c r="A7" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="18">
-        <v>4</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="18">
-        <v>2</v>
-      </c>
-      <c r="E7" s="18"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="17" t="s">
+      <c r="D12" s="14">
+        <v>2</v>
+      </c>
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="7"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="7"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" s="5" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A16" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="15">
+        <v>4</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="15">
+        <v>2</v>
+      </c>
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="15">
+        <v>4</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="15">
+        <v>2</v>
+      </c>
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="15">
+        <v>4</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="15">
+        <v>2</v>
+      </c>
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="15">
+        <v>4</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="15">
+        <v>2</v>
+      </c>
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="15">
         <v>6</v>
       </c>
-      <c r="B8" s="18">
-        <v>4</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="18">
-        <v>2</v>
-      </c>
-      <c r="E8" s="18"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="18">
-        <v>4</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="18">
-        <v>2</v>
-      </c>
-      <c r="E9" s="18"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="18">
+      <c r="C21" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="15">
+        <v>2</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="14">
         <v>2.5</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C22" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="18">
-        <v>2</v>
-      </c>
-      <c r="E10" s="18"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="18">
+      <c r="D22" s="14">
+        <v>2</v>
+      </c>
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="15">
         <v>2.5</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C23" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="18">
-        <v>2</v>
-      </c>
-      <c r="E11" s="18"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="18">
-        <v>10</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="18">
-        <v>2</v>
-      </c>
-      <c r="E12" s="18"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="8"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="8"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:5" s="5" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A16" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="19">
-        <v>4</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="19">
-        <v>2</v>
-      </c>
-      <c r="E17" s="19"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="19">
-        <v>4</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="19">
-        <v>2</v>
-      </c>
-      <c r="E18" s="19"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="19">
-        <v>4</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="19">
-        <v>2</v>
-      </c>
-      <c r="E19" s="19"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="19">
-        <v>4</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="19">
-        <v>2</v>
-      </c>
-      <c r="E20" s="19"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="19">
-        <v>6</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="19">
-        <v>2</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="18">
+      <c r="D23" s="15">
+        <v>2</v>
+      </c>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="15">
         <v>2.5</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C24" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="18">
-        <v>2</v>
-      </c>
-      <c r="E22" s="18"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="19">
-        <v>2.5</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="19">
-        <v>2</v>
-      </c>
-      <c r="E23" s="19"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="19">
-        <v>2.5</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="19">
-        <v>2</v>
-      </c>
-      <c r="E24" s="19"/>
+      <c r="D24" s="15">
+        <v>2</v>
+      </c>
+      <c r="E24" s="15"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="18"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26"/>
@@ -1351,8 +1376,8 @@
       <c r="D26"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" s="7" customFormat="1" ht="33" customHeight="1">
-      <c r="A27" s="7" t="s">
+    <row r="27" spans="1:5" s="19" customFormat="1" ht="33" customHeight="1">
+      <c r="A27" s="19" t="s">
         <v>37</v>
       </c>
     </row>

--- a/qdx.xlsx
+++ b/qdx.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="49">
   <si>
     <t>类别</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,23 +199,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5000W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>也控制副箱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>饭厅地插</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25A漏保</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>众臣曾工：改为4平方</t>
+    <t>饭厅地插
+由4改为2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5kW以上热水器
+含主卫照明插座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含客厅餐厅
+过道厨房照明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -355,7 +354,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -413,6 +412,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -424,9 +432,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -994,8 +999,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="19" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A21" s="19" t="s">
+    <row r="21" spans="1:4" s="22" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A21" s="22" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1014,7 +1019,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1045,13 +1050,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:6" customFormat="1">
       <c r="A3" s="13" t="s">
@@ -1083,25 +1088,23 @@
       </c>
       <c r="E4" s="14"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="33">
       <c r="A5" s="13" t="s">
         <v>39</v>
       </c>
       <c r="B5" s="14">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D5" s="14">
         <v>2</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>49</v>
-      </c>
+      <c r="E5" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="13" t="s">
@@ -1117,7 +1120,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30.75" customHeight="1">
@@ -1180,7 +1183,7 @@
       </c>
       <c r="E10" s="14"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="33">
       <c r="A11" s="13" t="s">
         <v>43</v>
       </c>
@@ -1193,7 +1196,9 @@
       <c r="D11" s="14">
         <v>2</v>
       </c>
-      <c r="E11" s="14"/>
+      <c r="E11" s="20" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="13" t="s">
@@ -1232,13 +1237,13 @@
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:6" s="5" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="25"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="17" t="s">
@@ -1300,7 +1305,7 @@
       </c>
       <c r="E20" s="15"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" ht="33">
       <c r="A21" s="17" t="s">
         <v>13</v>
       </c>
@@ -1313,8 +1318,8 @@
       <c r="D21" s="15">
         <v>2</v>
       </c>
-      <c r="E21" s="15" t="s">
-        <v>45</v>
+      <c r="E21" s="21" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1376,8 +1381,8 @@
       <c r="D26"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" s="19" customFormat="1" ht="33" customHeight="1">
-      <c r="A27" s="19" t="s">
+    <row r="27" spans="1:5" s="22" customFormat="1" ht="33" customHeight="1">
+      <c r="A27" s="22" t="s">
         <v>37</v>
       </c>
     </row>
